--- a/Output_Worst_Q3.xlsx
+++ b/Output_Worst_Q3.xlsx
@@ -495,28 +495,28 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>161.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E2">
-        <v>5240</v>
+        <v>1998</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5239</v>
+        <v>1998</v>
       </c>
       <c r="H2">
-        <v>808641.98</v>
+        <v>356785.71</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>154.32</v>
+        <v>178.57</v>
       </c>
       <c r="K2">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -530,28 +530,28 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>160.5</v>
+        <v>53.8</v>
       </c>
       <c r="E3">
-        <v>4878</v>
+        <v>1998</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="G3">
-        <v>4877</v>
+        <v>1398</v>
       </c>
       <c r="H3">
-        <v>802302.63</v>
+        <v>376858.46</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.98</v>
       </c>
       <c r="J3">
-        <v>164.47</v>
+        <v>188.62</v>
       </c>
       <c r="K3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -565,28 +565,28 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>198.1</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E4">
-        <v>5942</v>
+        <v>1998</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5942</v>
+        <v>1998</v>
       </c>
       <c r="H4">
-        <v>990333.33</v>
+        <v>356785.71</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>166.67</v>
+        <v>178.57</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -600,28 +600,28 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>71.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E5">
-        <v>2297</v>
+        <v>1998</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2297</v>
+        <v>1998</v>
       </c>
       <c r="H5">
-        <v>358906.25</v>
+        <v>333000</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>156.25</v>
+        <v>166.67</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -635,28 +635,28 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>63.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E6">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="H6">
-        <v>319230.77</v>
+        <v>356785.71</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>160.26</v>
+        <v>178.57</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -670,25 +670,25 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>77.90000000000001</v>
+        <v>53.8</v>
       </c>
       <c r="E7">
-        <v>2275</v>
+        <v>1998</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="G7">
-        <v>2275</v>
+        <v>1398</v>
       </c>
       <c r="H7">
-        <v>389554.79</v>
+        <v>376858.46</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>29.98</v>
       </c>
       <c r="J7">
-        <v>171.23</v>
+        <v>188.62</v>
       </c>
       <c r="K7">
         <v>0.4</v>
@@ -705,28 +705,28 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>137.3</v>
+        <v>58.3</v>
       </c>
       <c r="E8">
-        <v>5334</v>
+        <v>1998</v>
       </c>
       <c r="F8">
-        <v>1600</v>
+        <v>599</v>
       </c>
       <c r="G8">
-        <v>3734</v>
+        <v>1399</v>
       </c>
       <c r="H8">
-        <v>974397.0600000001</v>
+        <v>399278.33</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="J8">
-        <v>182.68</v>
+        <v>199.84</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,28 +740,28 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>110.9</v>
+        <v>53.8</v>
       </c>
       <c r="E9">
-        <v>3371</v>
+        <v>1998</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="G9">
-        <v>3371</v>
+        <v>1398</v>
       </c>
       <c r="H9">
-        <v>554440.79</v>
+        <v>376858.46</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>29.98</v>
       </c>
       <c r="J9">
-        <v>164.47</v>
+        <v>188.62</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,28 +775,28 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>116</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E10">
-        <v>3759</v>
+        <v>1998</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3759</v>
+        <v>1998</v>
       </c>
       <c r="H10">
-        <v>580092.59</v>
+        <v>356785.71</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>154.32</v>
+        <v>178.57</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,28 +810,28 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>120.9</v>
+        <v>53.8</v>
       </c>
       <c r="E11">
-        <v>3529</v>
+        <v>1998</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="G11">
-        <v>3529</v>
+        <v>1398</v>
       </c>
       <c r="H11">
-        <v>604280.8199999999</v>
+        <v>376858.46</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>29.98</v>
       </c>
       <c r="J11">
-        <v>171.23</v>
+        <v>188.62</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -845,28 +845,28 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>110.3</v>
+        <v>58.3</v>
       </c>
       <c r="E12">
-        <v>4284</v>
+        <v>1998</v>
       </c>
       <c r="F12">
-        <v>1285</v>
+        <v>599</v>
       </c>
       <c r="G12">
-        <v>2998</v>
+        <v>1399</v>
       </c>
       <c r="H12">
-        <v>782586.76</v>
+        <v>399278.33</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="J12">
-        <v>182.68</v>
+        <v>199.84</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -880,28 +880,28 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>139.6</v>
+        <v>58.3</v>
       </c>
       <c r="E13">
-        <v>5183</v>
+        <v>1998</v>
       </c>
       <c r="F13">
-        <v>1554</v>
+        <v>599</v>
       </c>
       <c r="G13">
-        <v>3628</v>
+        <v>1399</v>
       </c>
       <c r="H13">
-        <v>977604.62</v>
+        <v>399278.33</v>
       </c>
       <c r="I13">
         <v>29.98</v>
       </c>
       <c r="J13">
-        <v>188.62</v>
+        <v>199.84</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -915,28 +915,28 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>152.1</v>
+        <v>42.8</v>
       </c>
       <c r="E14">
-        <v>4927</v>
+        <v>1998</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="G14">
-        <v>4927</v>
+        <v>1199</v>
       </c>
       <c r="H14">
-        <v>696977.88</v>
+        <v>316114.88</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>39.99</v>
       </c>
       <c r="J14">
-        <v>141.46</v>
+        <v>158.22</v>
       </c>
       <c r="K14">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -950,28 +950,28 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>51.9</v>
+        <v>46.1</v>
       </c>
       <c r="E15">
-        <v>2628</v>
+        <v>1998</v>
       </c>
       <c r="F15">
-        <v>1051</v>
+        <v>799</v>
       </c>
       <c r="G15">
-        <v>1577</v>
+        <v>1198</v>
       </c>
       <c r="H15">
-        <v>395410.42</v>
+        <v>331212.18</v>
       </c>
       <c r="I15">
         <v>39.99</v>
       </c>
       <c r="J15">
-        <v>150.46</v>
+        <v>165.77</v>
       </c>
       <c r="K15">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -985,28 +985,28 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>59.5</v>
+        <v>42.8</v>
       </c>
       <c r="E16">
-        <v>2974</v>
+        <v>1998</v>
       </c>
       <c r="F16">
-        <v>1189</v>
+        <v>799</v>
       </c>
       <c r="G16">
-        <v>1785</v>
+        <v>1199</v>
       </c>
       <c r="H16">
-        <v>451058.33</v>
+        <v>316114.88</v>
       </c>
       <c r="I16">
-        <v>39.98</v>
+        <v>39.99</v>
       </c>
       <c r="J16">
-        <v>151.67</v>
+        <v>158.22</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>73.09999999999999</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>2338</v>
+        <v>1998</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="G17">
-        <v>2338</v>
+        <v>1199</v>
       </c>
       <c r="H17">
-        <v>334869.79</v>
+        <v>303030.56</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>39.99</v>
       </c>
       <c r="J17">
-        <v>143.23</v>
+        <v>151.67</v>
       </c>
       <c r="K17">
         <v>0.3</v>
@@ -1055,28 +1055,28 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>128.8</v>
+        <v>42.8</v>
       </c>
       <c r="E18">
-        <v>4020</v>
+        <v>1998</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="G18">
-        <v>4020</v>
+        <v>1199</v>
       </c>
       <c r="H18">
-        <v>590544.87</v>
+        <v>316114.88</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>39.99</v>
       </c>
       <c r="J18">
-        <v>146.9</v>
+        <v>158.22</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1090,28 +1090,28 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>64.7</v>
+        <v>46.1</v>
       </c>
       <c r="E19">
-        <v>3147</v>
+        <v>1998</v>
       </c>
       <c r="F19">
-        <v>1258</v>
+        <v>799</v>
       </c>
       <c r="G19">
-        <v>1888</v>
+        <v>1198</v>
       </c>
       <c r="H19">
-        <v>485204</v>
+        <v>331212.18</v>
       </c>
       <c r="I19">
-        <v>39.97</v>
+        <v>39.99</v>
       </c>
       <c r="J19">
-        <v>154.18</v>
+        <v>165.77</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1125,28 +1125,28 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>94.2</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>4271</v>
+        <v>1998</v>
       </c>
       <c r="F20">
-        <v>1708</v>
+        <v>799</v>
       </c>
       <c r="G20">
-        <v>2563</v>
+        <v>1198</v>
       </c>
       <c r="H20">
-        <v>688078.0600000001</v>
+        <v>348825.69</v>
       </c>
       <c r="I20">
         <v>39.99</v>
       </c>
       <c r="J20">
-        <v>161.1</v>
+        <v>174.59</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1160,28 +1160,28 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>51.7</v>
+        <v>46.1</v>
       </c>
       <c r="E21">
-        <v>2620</v>
+        <v>1998</v>
       </c>
       <c r="F21">
-        <v>1048</v>
+        <v>799</v>
       </c>
       <c r="G21">
-        <v>1572</v>
+        <v>1198</v>
       </c>
       <c r="H21">
-        <v>394206.58</v>
+        <v>331212.18</v>
       </c>
       <c r="I21">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J21">
-        <v>150.46</v>
+        <v>165.77</v>
       </c>
       <c r="K21">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1195,28 +1195,28 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>139.4</v>
+        <v>42.8</v>
       </c>
       <c r="E22">
-        <v>4517</v>
+        <v>1998</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="G22">
-        <v>4517</v>
+        <v>1199</v>
       </c>
       <c r="H22">
-        <v>638978.91</v>
+        <v>316114.88</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>39.99</v>
       </c>
       <c r="J22">
-        <v>141.46</v>
+        <v>158.22</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>85.40000000000001</v>
+        <v>46.1</v>
       </c>
       <c r="E23">
-        <v>4155</v>
+        <v>1998</v>
       </c>
       <c r="F23">
-        <v>1662</v>
+        <v>799</v>
       </c>
       <c r="G23">
-        <v>2492</v>
+        <v>1198</v>
       </c>
       <c r="H23">
-        <v>640609.9300000001</v>
+        <v>331212.18</v>
       </c>
       <c r="I23">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J23">
-        <v>154.18</v>
+        <v>165.77</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1265,28 +1265,28 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>69.2</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>3137</v>
+        <v>1998</v>
       </c>
       <c r="F24">
-        <v>1254</v>
+        <v>799</v>
       </c>
       <c r="G24">
-        <v>1883</v>
+        <v>1198</v>
       </c>
       <c r="H24">
-        <v>505394.73</v>
+        <v>348825.69</v>
       </c>
       <c r="I24">
-        <v>39.97</v>
+        <v>39.99</v>
       </c>
       <c r="J24">
-        <v>161.11</v>
+        <v>174.59</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1300,28 +1300,28 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>97.59999999999999</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>4227</v>
+        <v>1998</v>
       </c>
       <c r="F25">
-        <v>1690</v>
+        <v>799</v>
       </c>
       <c r="G25">
-        <v>2537</v>
+        <v>1198</v>
       </c>
       <c r="H25">
-        <v>700727.5600000001</v>
+        <v>348825.69</v>
       </c>
       <c r="I25">
-        <v>39.98</v>
+        <v>39.99</v>
       </c>
       <c r="J25">
-        <v>165.77</v>
+        <v>174.59</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1335,28 +1335,28 @@
         <v>13</v>
       </c>
       <c r="D26">
-        <v>35.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E26">
-        <v>1162</v>
+        <v>1998</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1162</v>
+        <v>1998</v>
       </c>
       <c r="H26">
-        <v>158400.21</v>
+        <v>315160.71</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>136.32</v>
+        <v>157.74</v>
       </c>
       <c r="K26">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1370,25 +1370,25 @@
         <v>14</v>
       </c>
       <c r="D27">
-        <v>64.7</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1967</v>
+        <v>1998</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="G27">
-        <v>1967</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>285775.77</v>
+        <v>319680</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27">
-        <v>145.29</v>
+        <v>160</v>
       </c>
       <c r="K27">
         <v>0.3</v>
@@ -1405,25 +1405,25 @@
         <v>15</v>
       </c>
       <c r="D28">
-        <v>63.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E28">
-        <v>1898</v>
+        <v>1998</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1898</v>
+        <v>1998</v>
       </c>
       <c r="H28">
-        <v>279427.78</v>
+        <v>315160.71</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>147.22</v>
+        <v>157.74</v>
       </c>
       <c r="K28">
         <v>0.3</v>
@@ -1440,25 +1440,25 @@
         <v>16</v>
       </c>
       <c r="D29">
-        <v>70.7</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E29">
-        <v>2261</v>
+        <v>1998</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2261</v>
+        <v>1998</v>
       </c>
       <c r="H29">
-        <v>312065.1</v>
+        <v>294150</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>138.02</v>
+        <v>147.22</v>
       </c>
       <c r="K29">
         <v>0.3</v>
@@ -1475,25 +1475,25 @@
         <v>17</v>
       </c>
       <c r="D30">
-        <v>65.09999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E30">
-        <v>2030</v>
+        <v>1998</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2030</v>
+        <v>1998</v>
       </c>
       <c r="H30">
-        <v>287366.45</v>
+        <v>315160.71</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>141.56</v>
+        <v>157.74</v>
       </c>
       <c r="K30">
         <v>0.3</v>
@@ -1510,28 +1510,28 @@
         <v>18</v>
       </c>
       <c r="D31">
-        <v>56.2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1642</v>
+        <v>1998</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="G31">
-        <v>1642</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>248361.87</v>
+        <v>319680</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J31">
-        <v>151.26</v>
+        <v>160</v>
       </c>
       <c r="K31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1548,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2489</v>
+        <v>1998</v>
       </c>
       <c r="F32">
-        <v>2489</v>
+        <v>1998</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>398240</v>
+        <v>319680</v>
       </c>
       <c r="I32">
         <v>100</v>
@@ -1566,7 +1566,7 @@
         <v>160</v>
       </c>
       <c r="K32">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1580,28 +1580,28 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>82.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>2496</v>
+        <v>1998</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="G33">
-        <v>2495</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>362631.58</v>
+        <v>319680</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33">
-        <v>145.29</v>
+        <v>160</v>
       </c>
       <c r="K33">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1615,28 +1615,28 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>28.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E34">
-        <v>922</v>
+        <v>1998</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>922</v>
+        <v>1998</v>
       </c>
       <c r="H34">
-        <v>125684.16</v>
+        <v>315160.71</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>136.32</v>
+        <v>157.74</v>
       </c>
       <c r="K34">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1650,28 +1650,28 @@
         <v>22</v>
       </c>
       <c r="D35">
-        <v>82.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>2421</v>
+        <v>1998</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="G35">
-        <v>2421</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>366190.07</v>
+        <v>319680</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35">
-        <v>151.26</v>
+        <v>160</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>963</v>
+        <v>1998</v>
       </c>
       <c r="F36">
-        <v>963</v>
+        <v>1998</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>154080</v>
+        <v>319680</v>
       </c>
       <c r="I36">
         <v>100</v>
@@ -1706,7 +1706,7 @@
         <v>160</v>
       </c>
       <c r="K36">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:11">

--- a/Output_Worst_Q3.xlsx
+++ b/Output_Worst_Q3.xlsx
@@ -22,28 +22,28 @@
     <t>Month</t>
   </si>
   <si>
-    <t>No of FTE</t>
+    <t>No of FTE Worst</t>
   </si>
   <si>
     <t>Demand</t>
   </si>
   <si>
-    <t>No of Outsourced App</t>
-  </si>
-  <si>
-    <t>No of FTE Processed App</t>
-  </si>
-  <si>
-    <t>Estimated Cost</t>
-  </si>
-  <si>
-    <t>Percent Outsourced App</t>
-  </si>
-  <si>
-    <t>Average Cost Per Application</t>
-  </si>
-  <si>
-    <t>Estimated Cost in mn $</t>
+    <t>No of Outsource App Worst</t>
+  </si>
+  <si>
+    <t>No of FTE Processed App Worst</t>
+  </si>
+  <si>
+    <t>Estimated Cost Worst</t>
+  </si>
+  <si>
+    <t>Percent Outsourced App Worst</t>
+  </si>
+  <si>
+    <t>Average Cost Per Application Worst</t>
+  </si>
+  <si>
+    <t>Estimated Cost in mn $ Worst</t>
   </si>
   <si>
     <t>A</t>
@@ -495,28 +495,28 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>71.40000000000001</v>
+        <v>187.1</v>
       </c>
       <c r="E2">
-        <v>1998</v>
+        <v>5240</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1998</v>
+        <v>5239</v>
       </c>
       <c r="H2">
-        <v>356785.71</v>
+        <v>935714.285714285</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>178.57</v>
+        <v>178.6</v>
       </c>
       <c r="K2">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -530,28 +530,28 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>53.8</v>
+        <v>131.3</v>
       </c>
       <c r="E3">
-        <v>1998</v>
+        <v>4878</v>
       </c>
       <c r="F3">
-        <v>599</v>
+        <v>1463</v>
       </c>
       <c r="G3">
-        <v>1398</v>
+        <v>3415</v>
       </c>
       <c r="H3">
-        <v>376858.46</v>
+        <v>920070.7692307701</v>
       </c>
       <c r="I3">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>188.62</v>
+        <v>188.6</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -565,28 +565,28 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>71.40000000000001</v>
+        <v>212.2</v>
       </c>
       <c r="E4">
-        <v>1998</v>
+        <v>5942</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1998</v>
+        <v>5942</v>
       </c>
       <c r="H4">
-        <v>356785.71</v>
+        <v>1061071.42857143</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>178.57</v>
+        <v>178.6</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -600,28 +600,28 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>66.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E5">
-        <v>1998</v>
+        <v>2297</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1998</v>
+        <v>2297</v>
       </c>
       <c r="H5">
-        <v>333000</v>
+        <v>382833.3333333335</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>166.67</v>
+        <v>166.7</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -635,25 +635,25 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>71.40000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E6">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="H6">
-        <v>356785.71</v>
+        <v>355714.2857142855</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>178.57</v>
+        <v>178.6</v>
       </c>
       <c r="K6">
         <v>0.4</v>
@@ -670,25 +670,25 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>53.8</v>
+        <v>61.3</v>
       </c>
       <c r="E7">
-        <v>1998</v>
+        <v>2275</v>
       </c>
       <c r="F7">
-        <v>599</v>
+        <v>682</v>
       </c>
       <c r="G7">
-        <v>1398</v>
+        <v>1593</v>
       </c>
       <c r="H7">
-        <v>376858.46</v>
+        <v>429106.153846154</v>
       </c>
       <c r="I7">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>188.62</v>
+        <v>188.6</v>
       </c>
       <c r="K7">
         <v>0.4</v>
@@ -705,28 +705,28 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>58.3</v>
+        <v>155.6</v>
       </c>
       <c r="E8">
-        <v>1998</v>
+        <v>5334</v>
       </c>
       <c r="F8">
-        <v>599</v>
+        <v>1600</v>
       </c>
       <c r="G8">
-        <v>1399</v>
+        <v>3733</v>
       </c>
       <c r="H8">
-        <v>399278.33</v>
+        <v>1065916.666666665</v>
       </c>
       <c r="I8">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>199.84</v>
+        <v>199.8</v>
       </c>
       <c r="K8">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,28 +740,28 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>53.8</v>
+        <v>90.8</v>
       </c>
       <c r="E9">
-        <v>1998</v>
+        <v>3371</v>
       </c>
       <c r="F9">
-        <v>599</v>
+        <v>1011</v>
       </c>
       <c r="G9">
-        <v>1398</v>
+        <v>2360</v>
       </c>
       <c r="H9">
-        <v>376858.46</v>
+        <v>635826.153846154</v>
       </c>
       <c r="I9">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>188.62</v>
+        <v>188.6</v>
       </c>
       <c r="K9">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,28 +775,28 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>71.40000000000001</v>
+        <v>134.2</v>
       </c>
       <c r="E10">
-        <v>1998</v>
+        <v>3759</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1998</v>
+        <v>3758</v>
       </c>
       <c r="H10">
-        <v>356785.71</v>
+        <v>671250</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>178.57</v>
+        <v>178.6</v>
       </c>
       <c r="K10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,28 +810,28 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>53.8</v>
+        <v>95</v>
       </c>
       <c r="E11">
-        <v>1998</v>
+        <v>3529</v>
       </c>
       <c r="F11">
-        <v>599</v>
+        <v>1058</v>
       </c>
       <c r="G11">
-        <v>1398</v>
+        <v>2470</v>
       </c>
       <c r="H11">
-        <v>376858.46</v>
+        <v>665632.3076923075</v>
       </c>
       <c r="I11">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="J11">
-        <v>188.62</v>
+        <v>188.6</v>
       </c>
       <c r="K11">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -845,28 +845,28 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>58.3</v>
+        <v>125</v>
       </c>
       <c r="E12">
-        <v>1998</v>
+        <v>4284</v>
       </c>
       <c r="F12">
-        <v>599</v>
+        <v>1285</v>
       </c>
       <c r="G12">
-        <v>1399</v>
+        <v>2998</v>
       </c>
       <c r="H12">
-        <v>399278.33</v>
+        <v>856091.666666665</v>
       </c>
       <c r="I12">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>199.84</v>
+        <v>199.8</v>
       </c>
       <c r="K12">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -880,28 +880,28 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>58.3</v>
+        <v>151.2</v>
       </c>
       <c r="E13">
-        <v>1998</v>
+        <v>5183</v>
       </c>
       <c r="F13">
-        <v>599</v>
+        <v>1554</v>
       </c>
       <c r="G13">
-        <v>1399</v>
+        <v>3628</v>
       </c>
       <c r="H13">
-        <v>399278.33</v>
+        <v>1035761.666666665</v>
       </c>
       <c r="I13">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="J13">
-        <v>199.84</v>
+        <v>199.8</v>
       </c>
       <c r="K13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -915,28 +915,28 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>42.8</v>
+        <v>105.6</v>
       </c>
       <c r="E14">
-        <v>1998</v>
+        <v>4927</v>
       </c>
       <c r="F14">
-        <v>799</v>
+        <v>1970</v>
       </c>
       <c r="G14">
-        <v>1199</v>
+        <v>2957</v>
       </c>
       <c r="H14">
-        <v>316114.88</v>
+        <v>779532.7380952388</v>
       </c>
       <c r="I14">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>158.22</v>
+        <v>158.2</v>
       </c>
       <c r="K14">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -950,28 +950,28 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>46.1</v>
+        <v>60.7</v>
       </c>
       <c r="E15">
-        <v>1998</v>
+        <v>2628</v>
       </c>
       <c r="F15">
-        <v>799</v>
+        <v>1051</v>
       </c>
       <c r="G15">
-        <v>1198</v>
+        <v>1577</v>
       </c>
       <c r="H15">
-        <v>331212.18</v>
+        <v>435646.7948717951</v>
       </c>
       <c r="I15">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J15">
-        <v>165.77</v>
+        <v>165.8</v>
       </c>
       <c r="K15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -985,28 +985,28 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>42.8</v>
+        <v>63.8</v>
       </c>
       <c r="E16">
-        <v>1998</v>
+        <v>2974</v>
       </c>
       <c r="F16">
-        <v>799</v>
+        <v>1189</v>
       </c>
       <c r="G16">
-        <v>1199</v>
+        <v>1785</v>
       </c>
       <c r="H16">
-        <v>316114.88</v>
+        <v>470537.5</v>
       </c>
       <c r="I16">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J16">
-        <v>158.22</v>
+        <v>158.2</v>
       </c>
       <c r="K16">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="D17">
+        <v>46.8</v>
+      </c>
+      <c r="E17">
+        <v>2338</v>
+      </c>
+      <c r="F17">
+        <v>935</v>
+      </c>
+      <c r="G17">
+        <v>1403</v>
+      </c>
+      <c r="H17">
+        <v>354597.2222222224</v>
+      </c>
+      <c r="I17">
         <v>40</v>
       </c>
-      <c r="E17">
-        <v>1998</v>
-      </c>
-      <c r="F17">
-        <v>799</v>
-      </c>
-      <c r="G17">
-        <v>1199</v>
-      </c>
-      <c r="H17">
-        <v>303030.56</v>
-      </c>
-      <c r="I17">
-        <v>39.99</v>
-      </c>
       <c r="J17">
-        <v>151.67</v>
+        <v>151.7</v>
       </c>
       <c r="K17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1055,28 +1055,28 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>42.8</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E18">
-        <v>1998</v>
+        <v>4020</v>
       </c>
       <c r="F18">
-        <v>799</v>
+        <v>1608</v>
       </c>
       <c r="G18">
-        <v>1199</v>
+        <v>2411</v>
       </c>
       <c r="H18">
-        <v>316114.88</v>
+        <v>636021.4285714284</v>
       </c>
       <c r="I18">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J18">
-        <v>158.22</v>
+        <v>158.2</v>
       </c>
       <c r="K18">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1090,28 +1090,28 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>46.1</v>
+        <v>72.7</v>
       </c>
       <c r="E19">
-        <v>1998</v>
+        <v>3147</v>
       </c>
       <c r="F19">
-        <v>799</v>
+        <v>1258</v>
       </c>
       <c r="G19">
-        <v>1198</v>
+        <v>1889</v>
       </c>
       <c r="H19">
-        <v>331212.18</v>
+        <v>521696.794871795</v>
       </c>
       <c r="I19">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>165.77</v>
+        <v>165.8</v>
       </c>
       <c r="K19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1125,28 +1125,28 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>106.8</v>
       </c>
       <c r="E20">
-        <v>1998</v>
+        <v>4271</v>
       </c>
       <c r="F20">
-        <v>799</v>
+        <v>1708</v>
       </c>
       <c r="G20">
-        <v>1198</v>
+        <v>2563</v>
       </c>
       <c r="H20">
-        <v>348825.69</v>
+        <v>745661.805555557</v>
       </c>
       <c r="I20">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>174.59</v>
+        <v>174.6</v>
       </c>
       <c r="K20">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1160,28 +1160,28 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>46.1</v>
+        <v>60.5</v>
       </c>
       <c r="E21">
-        <v>1998</v>
+        <v>2620</v>
       </c>
       <c r="F21">
-        <v>799</v>
+        <v>1048</v>
       </c>
       <c r="G21">
-        <v>1198</v>
+        <v>1572</v>
       </c>
       <c r="H21">
-        <v>331212.18</v>
+        <v>434315.3846153848</v>
       </c>
       <c r="I21">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J21">
-        <v>165.77</v>
+        <v>165.8</v>
       </c>
       <c r="K21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1195,28 +1195,28 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>42.8</v>
+        <v>96.8</v>
       </c>
       <c r="E22">
-        <v>1998</v>
+        <v>4517</v>
       </c>
       <c r="F22">
-        <v>799</v>
+        <v>1806</v>
       </c>
       <c r="G22">
-        <v>1199</v>
+        <v>2711</v>
       </c>
       <c r="H22">
-        <v>316114.88</v>
+        <v>714664.8809523811</v>
       </c>
       <c r="I22">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J22">
-        <v>158.22</v>
+        <v>158.2</v>
       </c>
       <c r="K22">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>46.1</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E23">
-        <v>1998</v>
+        <v>4155</v>
       </c>
       <c r="F23">
-        <v>799</v>
+        <v>1662</v>
       </c>
       <c r="G23">
-        <v>1198</v>
+        <v>2493</v>
       </c>
       <c r="H23">
-        <v>331212.18</v>
+        <v>688771.1538461539</v>
       </c>
       <c r="I23">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J23">
-        <v>165.77</v>
+        <v>165.8</v>
       </c>
       <c r="K23">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1265,28 +1265,28 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>78.5</v>
       </c>
       <c r="E24">
-        <v>1998</v>
+        <v>3137</v>
       </c>
       <c r="F24">
-        <v>799</v>
+        <v>1254</v>
       </c>
       <c r="G24">
-        <v>1198</v>
+        <v>1882</v>
       </c>
       <c r="H24">
-        <v>348825.69</v>
+        <v>547700.6944444443</v>
       </c>
       <c r="I24">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J24">
-        <v>174.59</v>
+        <v>174.6</v>
       </c>
       <c r="K24">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1300,28 +1300,28 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>105.7</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>4227</v>
       </c>
       <c r="F25">
-        <v>799</v>
+        <v>1690</v>
       </c>
       <c r="G25">
-        <v>1198</v>
+        <v>2536</v>
       </c>
       <c r="H25">
-        <v>348825.69</v>
+        <v>737996.5277777762</v>
       </c>
       <c r="I25">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J25">
-        <v>174.59</v>
+        <v>174.6</v>
       </c>
       <c r="K25">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1335,28 +1335,28 @@
         <v>13</v>
       </c>
       <c r="D26">
-        <v>71.40000000000001</v>
+        <v>41.5</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1162</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1998</v>
+        <v>1162</v>
       </c>
       <c r="H26">
-        <v>315160.71</v>
+        <v>183291.6666666667</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>157.74</v>
+        <v>157.7</v>
       </c>
       <c r="K26">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="F27">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>319680</v>
+        <v>314720</v>
       </c>
       <c r="I27">
         <v>100</v>
@@ -1405,25 +1405,25 @@
         <v>15</v>
       </c>
       <c r="D28">
-        <v>71.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1898</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1998</v>
+        <v>1898</v>
       </c>
       <c r="H28">
-        <v>315160.71</v>
+        <v>299386.9047619049</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>157.74</v>
+        <v>157.7</v>
       </c>
       <c r="K28">
         <v>0.3</v>
@@ -1440,25 +1440,25 @@
         <v>16</v>
       </c>
       <c r="D29">
-        <v>66.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E29">
-        <v>1998</v>
+        <v>2261</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1998</v>
+        <v>2261</v>
       </c>
       <c r="H29">
-        <v>294150</v>
+        <v>332869.4444444446</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>147.22</v>
+        <v>147.2</v>
       </c>
       <c r="K29">
         <v>0.3</v>
@@ -1475,25 +1475,25 @@
         <v>17</v>
       </c>
       <c r="D30">
-        <v>71.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E30">
-        <v>1998</v>
+        <v>2030</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1998</v>
+        <v>2029</v>
       </c>
       <c r="H30">
-        <v>315160.71</v>
+        <v>320208.3333333334</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>157.74</v>
+        <v>157.7</v>
       </c>
       <c r="K30">
         <v>0.3</v>
@@ -1513,16 +1513,16 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1998</v>
+        <v>1642</v>
       </c>
       <c r="F31">
-        <v>1998</v>
+        <v>1642</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>319680</v>
+        <v>262720</v>
       </c>
       <c r="I31">
         <v>100</v>
@@ -1548,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1998</v>
+        <v>2489</v>
       </c>
       <c r="F32">
-        <v>1998</v>
+        <v>2489</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>319680</v>
+        <v>398240</v>
       </c>
       <c r="I32">
         <v>100</v>
@@ -1566,7 +1566,7 @@
         <v>160</v>
       </c>
       <c r="K32">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1998</v>
+        <v>2496</v>
       </c>
       <c r="F33">
-        <v>1998</v>
+        <v>2496</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>319680</v>
+        <v>399360</v>
       </c>
       <c r="I33">
         <v>100</v>
@@ -1601,7 +1601,7 @@
         <v>160</v>
       </c>
       <c r="K33">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1615,28 +1615,28 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>71.40000000000001</v>
+        <v>32.9</v>
       </c>
       <c r="E34">
-        <v>1998</v>
+        <v>922</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1998</v>
+        <v>921</v>
       </c>
       <c r="H34">
-        <v>315160.71</v>
+        <v>145434.5238095237</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>157.74</v>
+        <v>157.7</v>
       </c>
       <c r="K34">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1653,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1998</v>
+        <v>2421</v>
       </c>
       <c r="F35">
-        <v>1998</v>
+        <v>2421</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>319680</v>
+        <v>387360</v>
       </c>
       <c r="I35">
         <v>100</v>
@@ -1671,7 +1671,7 @@
         <v>160</v>
       </c>
       <c r="K35">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1998</v>
+        <v>963</v>
       </c>
       <c r="F36">
-        <v>1998</v>
+        <v>963</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>319680</v>
+        <v>154080</v>
       </c>
       <c r="I36">
         <v>100</v>
@@ -1706,7 +1706,7 @@
         <v>160</v>
       </c>
       <c r="K36">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:11">

--- a/Output_Worst_Q3.xlsx
+++ b/Output_Worst_Q3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>State</t>
   </si>
@@ -22,28 +22,31 @@
     <t>Month</t>
   </si>
   <si>
-    <t>No of FTE Worst</t>
-  </si>
-  <si>
     <t>Demand</t>
   </si>
   <si>
-    <t>No of Outsource App Worst</t>
-  </si>
-  <si>
-    <t>No of FTE Processed App Worst</t>
-  </si>
-  <si>
-    <t>Estimated Cost Worst</t>
-  </si>
-  <si>
-    <t>Percent Outsourced App Worst</t>
-  </si>
-  <si>
-    <t>Average Cost Per Application Worst</t>
-  </si>
-  <si>
-    <t>Estimated Cost in mn $ Worst</t>
+    <t>No of FTE</t>
+  </si>
+  <si>
+    <t>No of Outsource</t>
+  </si>
+  <si>
+    <t>No of FTE Processed Applications</t>
+  </si>
+  <si>
+    <t>Percent FTE Applications</t>
+  </si>
+  <si>
+    <t>Percent Outsourced Applications</t>
+  </si>
+  <si>
+    <t>Estimated Cost</t>
+  </si>
+  <si>
+    <t>Cost per Application</t>
+  </si>
+  <si>
+    <t>Estimated Cost in mn $</t>
   </si>
   <si>
     <t>A</t>
@@ -446,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,1247 +486,1355 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>187.1</v>
+        <v>1998</v>
       </c>
       <c r="E2">
-        <v>5240</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5239</v>
+        <v>1998</v>
       </c>
       <c r="H2">
-        <v>935714.285714285</v>
+        <v>3.57</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>178.6</v>
+        <v>356785.7142857145</v>
       </c>
       <c r="K2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>178.57</v>
+      </c>
+      <c r="L2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>131.3</v>
+        <v>1998</v>
       </c>
       <c r="E3">
-        <v>4878</v>
+        <v>53.8</v>
       </c>
       <c r="F3">
-        <v>1463</v>
+        <v>599</v>
       </c>
       <c r="G3">
-        <v>3415</v>
+        <v>1398</v>
       </c>
       <c r="H3">
-        <v>920070.7692307701</v>
+        <v>2.69</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="J3">
-        <v>188.6</v>
+        <v>376858.4615384615</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>188.62</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>212.2</v>
+        <v>1998</v>
       </c>
       <c r="E4">
-        <v>5942</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5942</v>
+        <v>1998</v>
       </c>
       <c r="H4">
-        <v>1061071.42857143</v>
+        <v>3.57</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>178.6</v>
+        <v>356785.7142857145</v>
       </c>
       <c r="K4">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>178.57</v>
+      </c>
+      <c r="L4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>76.59999999999999</v>
+        <v>1998</v>
       </c>
       <c r="E5">
-        <v>2297</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2297</v>
+        <v>1998</v>
       </c>
       <c r="H5">
-        <v>382833.3333333335</v>
+        <v>3.33</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>166.7</v>
+        <v>333000</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>166.67</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>71.09999999999999</v>
+        <v>1998</v>
       </c>
       <c r="E6">
-        <v>1992</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="H6">
-        <v>355714.2857142855</v>
+        <v>3.57</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>178.6</v>
+        <v>356785.7142857145</v>
       </c>
       <c r="K6">
+        <v>178.57</v>
+      </c>
+      <c r="L6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>61.3</v>
+        <v>1998</v>
       </c>
       <c r="E7">
-        <v>2275</v>
+        <v>53.8</v>
       </c>
       <c r="F7">
-        <v>682</v>
+        <v>599</v>
       </c>
       <c r="G7">
-        <v>1593</v>
+        <v>1398</v>
       </c>
       <c r="H7">
-        <v>429106.153846154</v>
+        <v>2.69</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="J7">
-        <v>188.6</v>
+        <v>376858.4615384615</v>
       </c>
       <c r="K7">
+        <v>188.62</v>
+      </c>
+      <c r="L7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>155.6</v>
+        <v>1998</v>
       </c>
       <c r="E8">
-        <v>5334</v>
+        <v>58.3</v>
       </c>
       <c r="F8">
-        <v>1600</v>
+        <v>599</v>
       </c>
       <c r="G8">
-        <v>3733</v>
+        <v>1399</v>
       </c>
       <c r="H8">
-        <v>1065916.666666665</v>
+        <v>2.92</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="J8">
-        <v>199.8</v>
+        <v>399278.3333333335</v>
       </c>
       <c r="K8">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>199.84</v>
+      </c>
+      <c r="L8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>90.8</v>
+        <v>1998</v>
       </c>
       <c r="E9">
-        <v>3371</v>
+        <v>53.8</v>
       </c>
       <c r="F9">
-        <v>1011</v>
+        <v>599</v>
       </c>
       <c r="G9">
-        <v>2360</v>
+        <v>1398</v>
       </c>
       <c r="H9">
-        <v>635826.153846154</v>
+        <v>2.69</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="J9">
-        <v>188.6</v>
+        <v>376858.4615384615</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>188.62</v>
+      </c>
+      <c r="L9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>134.2</v>
+        <v>1998</v>
       </c>
       <c r="E10">
-        <v>3759</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3758</v>
+        <v>1998</v>
       </c>
       <c r="H10">
-        <v>671250</v>
+        <v>3.57</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>178.6</v>
+        <v>356785.7142857145</v>
       </c>
       <c r="K10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>178.57</v>
+      </c>
+      <c r="L10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>1998</v>
       </c>
       <c r="E11">
-        <v>3529</v>
+        <v>53.8</v>
       </c>
       <c r="F11">
-        <v>1058</v>
+        <v>599</v>
       </c>
       <c r="G11">
-        <v>2470</v>
+        <v>1398</v>
       </c>
       <c r="H11">
-        <v>665632.3076923075</v>
+        <v>2.69</v>
       </c>
       <c r="I11">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="J11">
-        <v>188.6</v>
+        <v>376858.4615384615</v>
       </c>
       <c r="K11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>188.62</v>
+      </c>
+      <c r="L11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>125</v>
+        <v>1998</v>
       </c>
       <c r="E12">
-        <v>4284</v>
+        <v>58.3</v>
       </c>
       <c r="F12">
-        <v>1285</v>
+        <v>599</v>
       </c>
       <c r="G12">
-        <v>2998</v>
+        <v>1399</v>
       </c>
       <c r="H12">
-        <v>856091.666666665</v>
+        <v>2.92</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="J12">
-        <v>199.8</v>
+        <v>399278.3333333335</v>
       </c>
       <c r="K12">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>199.84</v>
+      </c>
+      <c r="L12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>151.2</v>
+        <v>1998</v>
       </c>
       <c r="E13">
-        <v>5183</v>
+        <v>58.3</v>
       </c>
       <c r="F13">
-        <v>1554</v>
+        <v>599</v>
       </c>
       <c r="G13">
-        <v>3628</v>
+        <v>1399</v>
       </c>
       <c r="H13">
-        <v>1035761.666666665</v>
+        <v>2.92</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="J13">
-        <v>199.8</v>
+        <v>399278.3333333335</v>
       </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>199.84</v>
+      </c>
+      <c r="L13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>105.6</v>
+        <v>1998</v>
       </c>
       <c r="E14">
-        <v>4927</v>
+        <v>42.8</v>
       </c>
       <c r="F14">
-        <v>1970</v>
+        <v>799</v>
       </c>
       <c r="G14">
-        <v>2957</v>
+        <v>1199</v>
       </c>
       <c r="H14">
-        <v>779532.7380952388</v>
+        <v>2.14</v>
       </c>
       <c r="I14">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J14">
-        <v>158.2</v>
+        <v>316114.8809523811</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>158.22</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>60.7</v>
+        <v>1998</v>
       </c>
       <c r="E15">
-        <v>2628</v>
+        <v>46.1</v>
       </c>
       <c r="F15">
-        <v>1051</v>
+        <v>799</v>
       </c>
       <c r="G15">
-        <v>1577</v>
+        <v>1198</v>
       </c>
       <c r="H15">
-        <v>435646.7948717951</v>
+        <v>2.31</v>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J15">
-        <v>165.8</v>
+        <v>331212.1794871794</v>
       </c>
       <c r="K15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>165.77</v>
+      </c>
+      <c r="L15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>63.8</v>
+        <v>1998</v>
       </c>
       <c r="E16">
-        <v>2974</v>
+        <v>42.8</v>
       </c>
       <c r="F16">
-        <v>1189</v>
+        <v>799</v>
       </c>
       <c r="G16">
-        <v>1785</v>
+        <v>1199</v>
       </c>
       <c r="H16">
-        <v>470537.5</v>
+        <v>2.14</v>
       </c>
       <c r="I16">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J16">
-        <v>158.2</v>
+        <v>316114.8809523811</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>158.22</v>
+      </c>
+      <c r="L16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>46.8</v>
+        <v>1998</v>
       </c>
       <c r="E17">
-        <v>2338</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>935</v>
+        <v>799</v>
       </c>
       <c r="G17">
-        <v>1403</v>
+        <v>1199</v>
       </c>
       <c r="H17">
-        <v>354597.2222222224</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J17">
-        <v>151.7</v>
+        <v>303030.5555555557</v>
       </c>
       <c r="K17">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>151.67</v>
+      </c>
+      <c r="L17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>86.09999999999999</v>
+        <v>1998</v>
       </c>
       <c r="E18">
-        <v>4020</v>
+        <v>42.8</v>
       </c>
       <c r="F18">
-        <v>1608</v>
+        <v>799</v>
       </c>
       <c r="G18">
-        <v>2411</v>
+        <v>1199</v>
       </c>
       <c r="H18">
-        <v>636021.4285714284</v>
+        <v>2.14</v>
       </c>
       <c r="I18">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J18">
-        <v>158.2</v>
+        <v>316114.8809523811</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>158.22</v>
+      </c>
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>72.7</v>
+        <v>1998</v>
       </c>
       <c r="E19">
-        <v>3147</v>
+        <v>46.1</v>
       </c>
       <c r="F19">
-        <v>1258</v>
+        <v>799</v>
       </c>
       <c r="G19">
-        <v>1889</v>
+        <v>1198</v>
       </c>
       <c r="H19">
-        <v>521696.794871795</v>
+        <v>2.31</v>
       </c>
       <c r="I19">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J19">
-        <v>165.8</v>
+        <v>331212.1794871794</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>165.77</v>
+      </c>
+      <c r="L19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>106.8</v>
+        <v>1998</v>
       </c>
       <c r="E20">
-        <v>4271</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>1708</v>
+        <v>799</v>
       </c>
       <c r="G20">
-        <v>2563</v>
+        <v>1198</v>
       </c>
       <c r="H20">
-        <v>745661.805555557</v>
+        <v>2.5</v>
       </c>
       <c r="I20">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J20">
-        <v>174.6</v>
+        <v>348825.6944444443</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>174.59</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>60.5</v>
+        <v>1998</v>
       </c>
       <c r="E21">
-        <v>2620</v>
+        <v>46.1</v>
       </c>
       <c r="F21">
-        <v>1048</v>
+        <v>799</v>
       </c>
       <c r="G21">
-        <v>1572</v>
+        <v>1198</v>
       </c>
       <c r="H21">
-        <v>434315.3846153848</v>
+        <v>2.31</v>
       </c>
       <c r="I21">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J21">
-        <v>165.8</v>
+        <v>331212.1794871794</v>
       </c>
       <c r="K21">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>165.77</v>
+      </c>
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>96.8</v>
+        <v>1998</v>
       </c>
       <c r="E22">
-        <v>4517</v>
+        <v>42.8</v>
       </c>
       <c r="F22">
-        <v>1806</v>
+        <v>799</v>
       </c>
       <c r="G22">
-        <v>2711</v>
+        <v>1199</v>
       </c>
       <c r="H22">
-        <v>714664.8809523811</v>
+        <v>2.14</v>
       </c>
       <c r="I22">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J22">
-        <v>158.2</v>
+        <v>316114.8809523811</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>158.22</v>
+      </c>
+      <c r="L22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>95.90000000000001</v>
+        <v>1998</v>
       </c>
       <c r="E23">
-        <v>4155</v>
+        <v>46.1</v>
       </c>
       <c r="F23">
-        <v>1662</v>
+        <v>799</v>
       </c>
       <c r="G23">
-        <v>2493</v>
+        <v>1198</v>
       </c>
       <c r="H23">
-        <v>688771.1538461539</v>
+        <v>2.31</v>
       </c>
       <c r="I23">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J23">
-        <v>165.8</v>
+        <v>331212.1794871794</v>
       </c>
       <c r="K23">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>165.77</v>
+      </c>
+      <c r="L23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>78.5</v>
+        <v>1998</v>
       </c>
       <c r="E24">
-        <v>3137</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>1254</v>
+        <v>799</v>
       </c>
       <c r="G24">
-        <v>1882</v>
+        <v>1198</v>
       </c>
       <c r="H24">
-        <v>547700.6944444443</v>
+        <v>2.5</v>
       </c>
       <c r="I24">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J24">
-        <v>174.6</v>
+        <v>348825.6944444443</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>174.59</v>
+      </c>
+      <c r="L24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>105.7</v>
+        <v>1998</v>
       </c>
       <c r="E25">
-        <v>4227</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>1690</v>
+        <v>799</v>
       </c>
       <c r="G25">
-        <v>2536</v>
+        <v>1198</v>
       </c>
       <c r="H25">
-        <v>737996.5277777762</v>
+        <v>2.5</v>
       </c>
       <c r="I25">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="J25">
-        <v>174.6</v>
+        <v>348825.6944444443</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>174.59</v>
+      </c>
+      <c r="L25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>41.5</v>
+        <v>1998</v>
       </c>
       <c r="E26">
-        <v>1162</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1162</v>
+        <v>1998</v>
       </c>
       <c r="H26">
-        <v>183291.6666666667</v>
+        <v>3.57</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>157.7</v>
+        <v>315160.7142857145</v>
       </c>
       <c r="K26">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>157.74</v>
+      </c>
+      <c r="L26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="E27">
-        <v>1967</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1967</v>
+        <v>1998</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>314720</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
+        <v>319680</v>
+      </c>
+      <c r="K27">
         <v>160</v>
       </c>
-      <c r="K27">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>67.8</v>
+        <v>1998</v>
       </c>
       <c r="E28">
-        <v>1898</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1898</v>
+        <v>1998</v>
       </c>
       <c r="H28">
-        <v>299386.9047619049</v>
+        <v>3.57</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>157.7</v>
+        <v>315160.7142857145</v>
       </c>
       <c r="K28">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>157.74</v>
+      </c>
+      <c r="L28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>75.40000000000001</v>
+        <v>1998</v>
       </c>
       <c r="E29">
-        <v>2261</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2261</v>
+        <v>1998</v>
       </c>
       <c r="H29">
-        <v>332869.4444444446</v>
+        <v>3.33</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>147.2</v>
+        <v>294150</v>
       </c>
       <c r="K29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>147.22</v>
+      </c>
+      <c r="L29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>72.5</v>
+        <v>1998</v>
       </c>
       <c r="E30">
-        <v>2030</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2029</v>
+        <v>1998</v>
       </c>
       <c r="H30">
-        <v>320208.3333333334</v>
+        <v>3.57</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>157.7</v>
+        <v>315160.7142857145</v>
       </c>
       <c r="K30">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>157.74</v>
+      </c>
+      <c r="L30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="E31">
-        <v>1642</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1642</v>
+        <v>1998</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>262720</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
+        <v>319680</v>
+      </c>
+      <c r="K31">
         <v>160</v>
       </c>
-      <c r="K31">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="E32">
-        <v>2489</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2489</v>
+        <v>1998</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>398240</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
+        <v>319680</v>
+      </c>
+      <c r="K32">
         <v>160</v>
       </c>
-      <c r="K32">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="E33">
-        <v>2496</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2496</v>
+        <v>1998</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>399360</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>100</v>
       </c>
       <c r="J33">
+        <v>319680</v>
+      </c>
+      <c r="K33">
         <v>160</v>
       </c>
-      <c r="K33">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>32.9</v>
+        <v>1998</v>
       </c>
       <c r="E34">
-        <v>922</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>921</v>
+        <v>1998</v>
       </c>
       <c r="H34">
-        <v>145434.5238095237</v>
+        <v>3.57</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>157.7</v>
+        <v>315160.7142857145</v>
       </c>
       <c r="K34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>157.74</v>
+      </c>
+      <c r="L34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="E35">
-        <v>2421</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>2421</v>
+        <v>1998</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>387360</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
       <c r="J35">
+        <v>319680</v>
+      </c>
+      <c r="K35">
         <v>160</v>
       </c>
-      <c r="K35">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="E36">
-        <v>963</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>963</v>
+        <v>1998</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>154080</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>100</v>
       </c>
       <c r="J36">
+        <v>319680</v>
+      </c>
+      <c r="K36">
         <v>160</v>
       </c>
-      <c r="K36">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="E37">
-        <v>1998</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1998</v>
@@ -1732,15 +1843,18 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>319680</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
+        <v>319680</v>
+      </c>
+      <c r="K37">
         <v>160</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.3</v>
       </c>
     </row>

--- a/Output_Worst_Q3.xlsx
+++ b/Output_Worst_Q3.xlsx
@@ -501,16 +501,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1998</v>
+        <v>5240</v>
       </c>
       <c r="E2">
-        <v>71.40000000000001</v>
+        <v>187.1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1998</v>
+        <v>5239</v>
       </c>
       <c r="H2">
         <v>3.57</v>
@@ -519,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>356785.7142857145</v>
+        <v>935714.285714285</v>
       </c>
       <c r="K2">
         <v>178.57</v>
       </c>
       <c r="L2">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -539,31 +539,31 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>1998</v>
+        <v>4878</v>
       </c>
       <c r="E3">
-        <v>53.8</v>
+        <v>131.3</v>
       </c>
       <c r="F3">
-        <v>599</v>
+        <v>1463</v>
       </c>
       <c r="G3">
-        <v>1398</v>
+        <v>3415</v>
       </c>
       <c r="H3">
         <v>2.69</v>
       </c>
       <c r="I3">
-        <v>29.98</v>
+        <v>29.99</v>
       </c>
       <c r="J3">
-        <v>376858.4615384615</v>
+        <v>920070.7692307701</v>
       </c>
       <c r="K3">
         <v>188.62</v>
       </c>
       <c r="L3">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -577,16 +577,16 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>1998</v>
+        <v>5942</v>
       </c>
       <c r="E4">
-        <v>71.40000000000001</v>
+        <v>212.2</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1998</v>
+        <v>5942</v>
       </c>
       <c r="H4">
         <v>3.57</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>356785.7142857145</v>
+        <v>1061071.42857143</v>
       </c>
       <c r="K4">
         <v>178.57</v>
       </c>
       <c r="L4">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -615,16 +615,16 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1998</v>
+        <v>2297</v>
       </c>
       <c r="E5">
-        <v>66.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1998</v>
+        <v>2297</v>
       </c>
       <c r="H5">
         <v>3.33</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>333000</v>
+        <v>382833.3333333335</v>
       </c>
       <c r="K5">
         <v>166.67</v>
       </c>
       <c r="L5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -653,16 +653,16 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="E6">
-        <v>71.40000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="H6">
         <v>3.57</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>356785.7142857145</v>
+        <v>355714.2857142855</v>
       </c>
       <c r="K6">
         <v>178.57</v>
@@ -691,16 +691,16 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>1998</v>
+        <v>2275</v>
       </c>
       <c r="E7">
-        <v>53.8</v>
+        <v>61.3</v>
       </c>
       <c r="F7">
-        <v>599</v>
+        <v>682</v>
       </c>
       <c r="G7">
-        <v>1398</v>
+        <v>1593</v>
       </c>
       <c r="H7">
         <v>2.69</v>
@@ -709,7 +709,7 @@
         <v>29.98</v>
       </c>
       <c r="J7">
-        <v>376858.4615384615</v>
+        <v>429106.153846154</v>
       </c>
       <c r="K7">
         <v>188.62</v>
@@ -729,31 +729,31 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>1998</v>
+        <v>5334</v>
       </c>
       <c r="E8">
-        <v>58.3</v>
+        <v>155.6</v>
       </c>
       <c r="F8">
-        <v>599</v>
+        <v>1600</v>
       </c>
       <c r="G8">
-        <v>1399</v>
+        <v>3733</v>
       </c>
       <c r="H8">
         <v>2.92</v>
       </c>
       <c r="I8">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>399278.3333333335</v>
+        <v>1065916.666666665</v>
       </c>
       <c r="K8">
-        <v>199.84</v>
+        <v>199.83</v>
       </c>
       <c r="L8">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>1998</v>
+        <v>3371</v>
       </c>
       <c r="E9">
-        <v>53.8</v>
+        <v>90.8</v>
       </c>
       <c r="F9">
-        <v>599</v>
+        <v>1011</v>
       </c>
       <c r="G9">
-        <v>1398</v>
+        <v>2360</v>
       </c>
       <c r="H9">
         <v>2.69</v>
       </c>
       <c r="I9">
-        <v>29.98</v>
+        <v>29.99</v>
       </c>
       <c r="J9">
-        <v>376858.4615384615</v>
+        <v>635826.153846154</v>
       </c>
       <c r="K9">
         <v>188.62</v>
       </c>
       <c r="L9">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -805,16 +805,16 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>1998</v>
+        <v>3759</v>
       </c>
       <c r="E10">
-        <v>71.40000000000001</v>
+        <v>134.2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1998</v>
+        <v>3758</v>
       </c>
       <c r="H10">
         <v>3.57</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>356785.7142857145</v>
+        <v>671250</v>
       </c>
       <c r="K10">
         <v>178.57</v>
       </c>
       <c r="L10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -843,16 +843,16 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>1998</v>
+        <v>3529</v>
       </c>
       <c r="E11">
-        <v>53.8</v>
+        <v>95</v>
       </c>
       <c r="F11">
-        <v>599</v>
+        <v>1058</v>
       </c>
       <c r="G11">
-        <v>1398</v>
+        <v>2470</v>
       </c>
       <c r="H11">
         <v>2.69</v>
@@ -861,13 +861,13 @@
         <v>29.98</v>
       </c>
       <c r="J11">
-        <v>376858.4615384615</v>
+        <v>665632.3076923075</v>
       </c>
       <c r="K11">
         <v>188.62</v>
       </c>
       <c r="L11">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -881,31 +881,31 @@
         <v>24</v>
       </c>
       <c r="D12">
-        <v>1998</v>
+        <v>4284</v>
       </c>
       <c r="E12">
-        <v>58.3</v>
+        <v>125</v>
       </c>
       <c r="F12">
-        <v>599</v>
+        <v>1285</v>
       </c>
       <c r="G12">
-        <v>1399</v>
+        <v>2998</v>
       </c>
       <c r="H12">
         <v>2.92</v>
       </c>
       <c r="I12">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>399278.3333333335</v>
+        <v>856091.666666665</v>
       </c>
       <c r="K12">
-        <v>199.84</v>
+        <v>199.83</v>
       </c>
       <c r="L12">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -919,16 +919,16 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>1998</v>
+        <v>5183</v>
       </c>
       <c r="E13">
-        <v>58.3</v>
+        <v>151.2</v>
       </c>
       <c r="F13">
-        <v>599</v>
+        <v>1554</v>
       </c>
       <c r="G13">
-        <v>1399</v>
+        <v>3628</v>
       </c>
       <c r="H13">
         <v>2.92</v>
@@ -937,13 +937,13 @@
         <v>29.98</v>
       </c>
       <c r="J13">
-        <v>399278.3333333335</v>
+        <v>1035761.666666665</v>
       </c>
       <c r="K13">
         <v>199.84</v>
       </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -957,31 +957,31 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>1998</v>
+        <v>4927</v>
       </c>
       <c r="E14">
-        <v>42.8</v>
+        <v>105.6</v>
       </c>
       <c r="F14">
-        <v>799</v>
+        <v>1970</v>
       </c>
       <c r="G14">
-        <v>1199</v>
+        <v>2957</v>
       </c>
       <c r="H14">
         <v>2.14</v>
       </c>
       <c r="I14">
-        <v>39.99</v>
+        <v>39.98</v>
       </c>
       <c r="J14">
-        <v>316114.8809523811</v>
+        <v>779532.7380952388</v>
       </c>
       <c r="K14">
         <v>158.22</v>
       </c>
       <c r="L14">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -995,16 +995,16 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>1998</v>
+        <v>2628</v>
       </c>
       <c r="E15">
-        <v>46.1</v>
+        <v>60.7</v>
       </c>
       <c r="F15">
-        <v>799</v>
+        <v>1051</v>
       </c>
       <c r="G15">
-        <v>1198</v>
+        <v>1577</v>
       </c>
       <c r="H15">
         <v>2.31</v>
@@ -1013,13 +1013,13 @@
         <v>39.99</v>
       </c>
       <c r="J15">
-        <v>331212.1794871794</v>
+        <v>435646.7948717951</v>
       </c>
       <c r="K15">
         <v>165.77</v>
       </c>
       <c r="L15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1033,31 +1033,31 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>1998</v>
+        <v>2974</v>
       </c>
       <c r="E16">
-        <v>42.8</v>
+        <v>63.8</v>
       </c>
       <c r="F16">
-        <v>799</v>
+        <v>1189</v>
       </c>
       <c r="G16">
-        <v>1199</v>
+        <v>1785</v>
       </c>
       <c r="H16">
         <v>2.14</v>
       </c>
       <c r="I16">
-        <v>39.99</v>
+        <v>39.98</v>
       </c>
       <c r="J16">
-        <v>316114.8809523811</v>
+        <v>470537.5</v>
       </c>
       <c r="K16">
         <v>158.22</v>
       </c>
       <c r="L16">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1071,16 +1071,16 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>1998</v>
+        <v>2338</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>46.8</v>
       </c>
       <c r="F17">
-        <v>799</v>
+        <v>935</v>
       </c>
       <c r="G17">
-        <v>1199</v>
+        <v>1403</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1089,13 +1089,13 @@
         <v>39.99</v>
       </c>
       <c r="J17">
-        <v>303030.5555555557</v>
+        <v>354597.2222222224</v>
       </c>
       <c r="K17">
         <v>151.67</v>
       </c>
       <c r="L17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1109,31 +1109,31 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>1998</v>
+        <v>4020</v>
       </c>
       <c r="E18">
-        <v>42.8</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F18">
-        <v>799</v>
+        <v>1608</v>
       </c>
       <c r="G18">
-        <v>1199</v>
+        <v>2411</v>
       </c>
       <c r="H18">
         <v>2.14</v>
       </c>
       <c r="I18">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J18">
-        <v>316114.8809523811</v>
+        <v>636021.4285714284</v>
       </c>
       <c r="K18">
-        <v>158.22</v>
+        <v>158.21</v>
       </c>
       <c r="L18">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1147,31 +1147,31 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>1998</v>
+        <v>3147</v>
       </c>
       <c r="E19">
-        <v>46.1</v>
+        <v>72.7</v>
       </c>
       <c r="F19">
-        <v>799</v>
+        <v>1258</v>
       </c>
       <c r="G19">
-        <v>1198</v>
+        <v>1889</v>
       </c>
       <c r="H19">
         <v>2.31</v>
       </c>
       <c r="I19">
-        <v>39.99</v>
+        <v>39.97</v>
       </c>
       <c r="J19">
-        <v>331212.1794871794</v>
+        <v>521696.794871795</v>
       </c>
       <c r="K19">
-        <v>165.77</v>
+        <v>165.78</v>
       </c>
       <c r="L19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1185,16 +1185,16 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>1998</v>
+        <v>4271</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>106.8</v>
       </c>
       <c r="F20">
-        <v>799</v>
+        <v>1708</v>
       </c>
       <c r="G20">
-        <v>1198</v>
+        <v>2563</v>
       </c>
       <c r="H20">
         <v>2.5</v>
@@ -1203,13 +1203,13 @@
         <v>39.99</v>
       </c>
       <c r="J20">
-        <v>348825.6944444443</v>
+        <v>745661.805555557</v>
       </c>
       <c r="K20">
         <v>174.59</v>
       </c>
       <c r="L20">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1223,31 +1223,31 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>1998</v>
+        <v>2620</v>
       </c>
       <c r="E21">
-        <v>46.1</v>
+        <v>60.5</v>
       </c>
       <c r="F21">
-        <v>799</v>
+        <v>1048</v>
       </c>
       <c r="G21">
-        <v>1198</v>
+        <v>1572</v>
       </c>
       <c r="H21">
         <v>2.31</v>
       </c>
       <c r="I21">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J21">
-        <v>331212.1794871794</v>
+        <v>434315.3846153848</v>
       </c>
       <c r="K21">
         <v>165.77</v>
       </c>
       <c r="L21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1261,31 +1261,31 @@
         <v>22</v>
       </c>
       <c r="D22">
-        <v>1998</v>
+        <v>4517</v>
       </c>
       <c r="E22">
-        <v>42.8</v>
+        <v>96.8</v>
       </c>
       <c r="F22">
-        <v>799</v>
+        <v>1806</v>
       </c>
       <c r="G22">
-        <v>1199</v>
+        <v>2711</v>
       </c>
       <c r="H22">
         <v>2.14</v>
       </c>
       <c r="I22">
-        <v>39.99</v>
+        <v>39.98</v>
       </c>
       <c r="J22">
-        <v>316114.8809523811</v>
+        <v>714664.8809523811</v>
       </c>
       <c r="K22">
         <v>158.22</v>
       </c>
       <c r="L22">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1299,31 +1299,31 @@
         <v>23</v>
       </c>
       <c r="D23">
-        <v>1998</v>
+        <v>4155</v>
       </c>
       <c r="E23">
-        <v>46.1</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F23">
-        <v>799</v>
+        <v>1662</v>
       </c>
       <c r="G23">
-        <v>1198</v>
+        <v>2493</v>
       </c>
       <c r="H23">
         <v>2.31</v>
       </c>
       <c r="I23">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="J23">
-        <v>331212.1794871794</v>
+        <v>688771.1538461539</v>
       </c>
       <c r="K23">
         <v>165.77</v>
       </c>
       <c r="L23">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1337,31 +1337,31 @@
         <v>24</v>
       </c>
       <c r="D24">
-        <v>1998</v>
+        <v>3137</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>78.5</v>
       </c>
       <c r="F24">
-        <v>799</v>
+        <v>1254</v>
       </c>
       <c r="G24">
-        <v>1198</v>
+        <v>1882</v>
       </c>
       <c r="H24">
         <v>2.5</v>
       </c>
       <c r="I24">
-        <v>39.99</v>
+        <v>39.97</v>
       </c>
       <c r="J24">
-        <v>348825.6944444443</v>
+        <v>547700.6944444443</v>
       </c>
       <c r="K24">
         <v>174.59</v>
       </c>
       <c r="L24">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1375,31 +1375,31 @@
         <v>25</v>
       </c>
       <c r="D25">
-        <v>1998</v>
+        <v>4227</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>105.7</v>
       </c>
       <c r="F25">
-        <v>799</v>
+        <v>1690</v>
       </c>
       <c r="G25">
-        <v>1198</v>
+        <v>2536</v>
       </c>
       <c r="H25">
         <v>2.5</v>
       </c>
       <c r="I25">
-        <v>39.99</v>
+        <v>39.98</v>
       </c>
       <c r="J25">
-        <v>348825.6944444443</v>
+        <v>737996.5277777762</v>
       </c>
       <c r="K25">
         <v>174.59</v>
       </c>
       <c r="L25">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1413,16 +1413,16 @@
         <v>14</v>
       </c>
       <c r="D26">
-        <v>1998</v>
+        <v>1162</v>
       </c>
       <c r="E26">
-        <v>71.40000000000001</v>
+        <v>41.5</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1998</v>
+        <v>1162</v>
       </c>
       <c r="H26">
         <v>3.57</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>315160.7142857145</v>
+        <v>183291.6666666667</v>
       </c>
       <c r="K26">
         <v>157.74</v>
       </c>
       <c r="L26">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1451,13 +1451,13 @@
         <v>15</v>
       </c>
       <c r="D27">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>100</v>
       </c>
       <c r="J27">
-        <v>319680</v>
+        <v>314720</v>
       </c>
       <c r="K27">
         <v>160</v>
@@ -1489,16 +1489,16 @@
         <v>16</v>
       </c>
       <c r="D28">
-        <v>1998</v>
+        <v>1898</v>
       </c>
       <c r="E28">
-        <v>71.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1998</v>
+        <v>1898</v>
       </c>
       <c r="H28">
         <v>3.57</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>315160.7142857145</v>
+        <v>299386.9047619049</v>
       </c>
       <c r="K28">
         <v>157.74</v>
@@ -1527,16 +1527,16 @@
         <v>17</v>
       </c>
       <c r="D29">
-        <v>1998</v>
+        <v>2261</v>
       </c>
       <c r="E29">
-        <v>66.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1998</v>
+        <v>2261</v>
       </c>
       <c r="H29">
         <v>3.33</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>294150</v>
+        <v>332869.4444444446</v>
       </c>
       <c r="K29">
         <v>147.22</v>
@@ -1565,16 +1565,16 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>1998</v>
+        <v>2030</v>
       </c>
       <c r="E30">
-        <v>71.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1998</v>
+        <v>2029</v>
       </c>
       <c r="H30">
         <v>3.57</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>315160.7142857145</v>
+        <v>320208.3333333334</v>
       </c>
       <c r="K30">
         <v>157.74</v>
@@ -1603,13 +1603,13 @@
         <v>19</v>
       </c>
       <c r="D31">
-        <v>1998</v>
+        <v>1642</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1998</v>
+        <v>1642</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>100</v>
       </c>
       <c r="J31">
-        <v>319680</v>
+        <v>262720</v>
       </c>
       <c r="K31">
         <v>160</v>
@@ -1641,13 +1641,13 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>1998</v>
+        <v>2489</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1998</v>
+        <v>2489</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1659,13 +1659,13 @@
         <v>100</v>
       </c>
       <c r="J32">
-        <v>319680</v>
+        <v>398240</v>
       </c>
       <c r="K32">
         <v>160</v>
       </c>
       <c r="L32">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1679,13 +1679,13 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>1998</v>
+        <v>2496</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1998</v>
+        <v>2496</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <v>319680</v>
+        <v>399360</v>
       </c>
       <c r="K33">
         <v>160</v>
       </c>
       <c r="L33">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1717,16 +1717,16 @@
         <v>22</v>
       </c>
       <c r="D34">
-        <v>1998</v>
+        <v>922</v>
       </c>
       <c r="E34">
-        <v>71.40000000000001</v>
+        <v>32.9</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1998</v>
+        <v>921</v>
       </c>
       <c r="H34">
         <v>3.57</v>
@@ -1735,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>315160.7142857145</v>
+        <v>145434.5238095237</v>
       </c>
       <c r="K34">
         <v>157.74</v>
       </c>
       <c r="L34">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1755,13 +1755,13 @@
         <v>23</v>
       </c>
       <c r="D35">
-        <v>1998</v>
+        <v>2421</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1998</v>
+        <v>2421</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>100</v>
       </c>
       <c r="J35">
-        <v>319680</v>
+        <v>387360</v>
       </c>
       <c r="K35">
         <v>160</v>
       </c>
       <c r="L35">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1793,13 +1793,13 @@
         <v>24</v>
       </c>
       <c r="D36">
-        <v>1998</v>
+        <v>963</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1998</v>
+        <v>963</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1811,13 +1811,13 @@
         <v>100</v>
       </c>
       <c r="J36">
-        <v>319680</v>
+        <v>154080</v>
       </c>
       <c r="K36">
         <v>160</v>
       </c>
       <c r="L36">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:12">
